--- a/data/income_statement/3digits/total/475_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/475_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>475-Retail sale of other household equipment in specialised stores</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>475-Retail sale of other household equipment in specialised stores</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>25087133.10918</v>
@@ -956,37 +862,42 @@
         <v>28785249.23665</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>36869458.91719</v>
+        <v>36881102.73547</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>41919050.70279</v>
+        <v>41968740.63433</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>46361121.80445</v>
+        <v>46508807.28752001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>51986748.45625</v>
+        <v>53144330.57568</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>58279542.54156</v>
+        <v>59269490.16296001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>66076237.02372999</v>
+        <v>66362840.21188</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>78282779.15944</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>75420150.24614999</v>
+        <v>75606699.58311</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>79215128.31564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>80495503.52281</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>98042748.15800001</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>23833247.72992</v>
@@ -995,43 +906,48 @@
         <v>27431236.95051</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>35128855.99106</v>
+        <v>35140499.80934001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>40056376.1338</v>
+        <v>40104911.07347</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>44364657.9293</v>
+        <v>44490155.43892</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>49675499.79954</v>
+        <v>50773753.08373</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>55871763.54617</v>
+        <v>56798523.52146</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>63315550.63136</v>
+        <v>63594942.53488</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>74876354.53668</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>71825964.61101002</v>
+        <v>72007050.62492001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>74674729.67892002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>75944287.03811</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>92831472.227</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>814006.8658799999</v>
+        <v>814006.8658799998</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>811310.6590799999</v>
+        <v>811310.65908</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>1041559.42784</v>
@@ -1040,70 +956,80 @@
         <v>1048569.96206</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1087954.78247</v>
+        <v>1106223.70639</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1320646.3444</v>
+        <v>1358147.42042</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1240198.81239</v>
+        <v>1288007.91231</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1302254.54647</v>
+        <v>1302863.45142</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1711187.59417</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1840861.87323</v>
+        <v>1845514.01002</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2507154.21145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2534231.42901</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2932694.65</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>439878.51338</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>542701.6270600001</v>
+        <v>542701.62706</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>699043.49829</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>814104.60693</v>
+        <v>815259.5987999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>908509.0926800001</v>
+        <v>912428.1422100001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>990602.31231</v>
+        <v>1012430.07153</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1167580.183</v>
+        <v>1182958.72919</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1458431.8459</v>
+        <v>1465034.22558</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1695237.02859</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1753323.76191</v>
+        <v>1754134.94817</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2033244.42527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2016985.05569</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2278581.281</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>435623.44992</v>
@@ -1115,34 +1041,39 @@
         <v>671702.18226</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>770761.8729099999</v>
+        <v>774188.45054</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>830825.8520300001</v>
+        <v>833874.9125</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>932853.94738</v>
+        <v>993102.39879</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1045070.17906</v>
+        <v>1063361.84154</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2731294.68935</v>
+        <v>2742846.5228</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1672215.31755</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2002110.19012</v>
+        <v>2003012.32817</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2555520.46892</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2563726.05874</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>3134592.861</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>258026.39473</v>
@@ -1151,37 +1082,42 @@
         <v>291813.53739</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>374643.59793</v>
+        <v>374643.5979299999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>462008.21725</v>
+        <v>462452.64817</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>501227.9443</v>
+        <v>504256.22565</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>576358.6675999999</v>
+        <v>609682.70771</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>653578.69947</v>
+        <v>671034.33503</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2138641.6212</v>
+        <v>2149768.64484</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>940206.3194800001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>985857.8251799998</v>
+        <v>986723.82527</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1037283.03193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1044408.79472</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1540935.855</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>169975.66438</v>
@@ -1193,37 +1129,42 @@
         <v>284928.84458</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>291908.5469600001</v>
+        <v>294888.52808</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>309669.71293</v>
+        <v>309669.72934</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>332935.89672</v>
+        <v>358582.32982</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>364741.5266</v>
+        <v>364989.80338</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>561896.0784300001</v>
+        <v>562029.46578</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>693541.2036900001</v>
+        <v>693541.20369</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>966838.7830000001</v>
+        <v>966874.92096</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1470188.80224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1471227.73319</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1543743.981</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>7621.390810000001</v>
+        <v>7621.39081</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>9057.99451</v>
@@ -1232,73 +1173,83 @@
         <v>12129.73975</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>16845.1087</v>
+        <v>16847.27429</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>19928.1948</v>
+        <v>19948.95751</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>23559.38306</v>
+        <v>24837.36126</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>26749.95299</v>
+        <v>27337.70313</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>30756.98972</v>
+        <v>31048.41218</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>38467.79437999999</v>
+        <v>38467.79438</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>49413.58194</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>48048.63475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>48089.53083</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>49913.025</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>24651509.65926</v>
+        <v>24651509.65925999</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>28278007.1078</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>36197756.73493</v>
+        <v>36209400.55321</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>41148288.82988001</v>
+        <v>41194552.18379001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>45530295.95242</v>
+        <v>45674932.37502</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>51053894.50887001</v>
+        <v>52151228.17689</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>57234472.3625</v>
+        <v>58206128.32142</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>63344942.33438</v>
+        <v>63619993.68908</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>76610563.84188999</v>
+        <v>76610563.84189001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>73418040.05603001</v>
+        <v>73603687.25494</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>76659607.84672</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>77931777.46407001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>94908155.29700001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>20753348.27325</v>
@@ -1307,76 +1258,86 @@
         <v>23713106.36399</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>30519246.19329999</v>
+        <v>30530332.87237</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>34670601.8589</v>
+        <v>34710895.31881001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>38277591.87387</v>
+        <v>38393220.82301001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>43086027.03188</v>
+        <v>43906424.68555</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>48115289.68518</v>
+        <v>48808158.60737</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>52808880.15745001</v>
+        <v>53015526.95944</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>64009447.36093</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>60009953.40910999</v>
+        <v>60178112.23782</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>61985520.36981</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>63090494.41718999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>78708267.37100001</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>883597.62445</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>969218.1696400001</v>
+        <v>969218.16964</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>1160170.08472</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1286255.68827</v>
+        <v>1289092.79645</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1381722.65234</v>
+        <v>1387638.05704</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1668159.35163</v>
+        <v>1673872.82997</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1475321.95415</v>
+        <v>1488859.89289</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2019537.87927</v>
+        <v>2019564.65386</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2576000.93345</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2654599.40537</v>
+        <v>2662636.20931</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2819690.43282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2856155.82174</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3243611.266</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>19259135.16202</v>
@@ -1385,37 +1346,42 @@
         <v>22122628.13959</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>28603044.5702</v>
+        <v>28614131.24927</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>32521090.1935</v>
+        <v>32554417.06747</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>36002684.05852</v>
+        <v>36109231.15578</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>40193799.25429</v>
+        <v>40974851.88787001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>45409921.1094</v>
+        <v>46066774.07301</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>49471815.91556001</v>
+        <v>49677558.00208</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>59675158.90034001</v>
+        <v>59675158.90034</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>55716100.58312</v>
+        <v>55874470.53409</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>57407086.35295001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>58460268.88308</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>73598089.881</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>589342.3073700001</v>
@@ -1427,34 +1393,39 @@
         <v>734049.85424</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>833671.31802</v>
+        <v>837800.79578</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>859191.8467400001</v>
+        <v>862358.2939200001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1169553.59505</v>
+        <v>1203132.03793</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1142682.3188</v>
+        <v>1164325.14677</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1206382.44504</v>
+        <v>1207240.01095</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1617143.37539</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1470550.15508</v>
+        <v>1472198.79027</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1532457.4748</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1581270.61627</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1682253.044</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>21273.17941</v>
@@ -1472,67 +1443,77 @@
         <v>33993.31627</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>54514.83091</v>
+        <v>54567.92978</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>87364.30283</v>
+        <v>88199.49470000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>111143.91758</v>
+        <v>111164.29255</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>141144.15175</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>168703.26554</v>
+        <v>168806.70415</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>226286.10924</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>192799.0961</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>184313.18</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>3898161.38601</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4564900.74381</v>
+        <v>4564900.743810001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>5678510.54163</v>
+        <v>5679067.680840001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>6477686.97098</v>
+        <v>6483656.864979999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7252704.07855</v>
+        <v>7281711.552010001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>7967867.476989999</v>
+        <v>8244803.49134</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>9119182.67732</v>
+        <v>9397969.714049999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>10536062.17693</v>
+        <v>10604466.72964</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>12601116.48096</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>13408086.64692</v>
+        <v>13425575.01712</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>14674087.47691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14841283.04688</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>16199887.926</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>3172532.81685</v>
@@ -1541,37 +1522,42 @@
         <v>3637942.58712</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>4544886.882569999</v>
+        <v>4545092.49415</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>5324111.956610001</v>
+        <v>5328241.12994</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>5925941.74858</v>
+        <v>5954779.33828</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>6436196.074360001</v>
+        <v>6699091.68349</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>7322532.68546</v>
+        <v>7530423.627990001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>8700975.48081</v>
+        <v>8744659.591250001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>9812441.859479999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>10908500.52877</v>
+        <v>10941451.84419</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12270112.84095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12415131.37567</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>12863011.095</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>4475.21779</v>
@@ -1580,16 +1566,16 @@
         <v>1662.64701</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>9043.220829999998</v>
+        <v>9043.22083</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>5194.247540000001</v>
+        <v>5194.24754</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>4320.46162</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1927.5083</v>
+        <v>3675.55096</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>5695.83454</v>
@@ -1601,16 +1587,21 @@
         <v>6285.08564</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>11690.65453</v>
+        <v>11696.61117</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>11907.58612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>11862.01229</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>13462.325</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1143205.17011</v>
@@ -1622,34 +1613,39 @@
         <v>1768515.7993</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2125159.97983</v>
+        <v>2127945.67518</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2393341.51941</v>
+        <v>2416313.25687</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2670761.40811</v>
+        <v>2839635.65611</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3130330.5789</v>
+        <v>3277449.54303</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3858816.30924</v>
+        <v>3895029.39088</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>4404361.56847</v>
+        <v>4404361.568469999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4957783.358309999</v>
+        <v>4964356.31874</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5582270.19134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5622067.410449999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5908821.026</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>2024852.42895</v>
@@ -1658,76 +1654,86 @@
         <v>2247372.76268</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2767327.86244</v>
+        <v>2767533.47402</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>3193757.72924</v>
+        <v>3195101.20722</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3528279.76755</v>
+        <v>3534145.61979</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3763507.15795</v>
+        <v>3855780.47642</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>4186506.27202</v>
+        <v>4247278.25042</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4837813.47833</v>
+        <v>4845284.50713</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>5401795.20537</v>
+        <v>5401795.205370001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5939026.515930001</v>
+        <v>5965398.914279999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6675935.06349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6781201.95293</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6940727.744</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>725628.5691600001</v>
+        <v>725628.56916</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>926958.15669</v>
+        <v>926958.1566900001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1133623.65906</v>
+        <v>1133975.18669</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1153575.01437</v>
+        <v>1155415.73504</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1326762.32997</v>
+        <v>1326932.21373</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1531671.40263</v>
+        <v>1545711.80785</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1796649.99186</v>
+        <v>1867546.08606</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1835086.69612</v>
+        <v>1859807.13839</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2788674.62148</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2499586.11815</v>
+        <v>2484123.17293</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2403974.63596</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2426151.67121</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3336876.831</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>251638.63359</v>
@@ -1739,55 +1745,60 @@
         <v>443730.44145</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>421353.45357</v>
+        <v>421399.3529</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>415582.63183</v>
+        <v>421275.84995</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>444249.1127299999</v>
+        <v>538892.9888099999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>744009.6218499999</v>
+        <v>790783.50982</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>802609.8710899999</v>
+        <v>805752.93321</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1069401.06056</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2341284.27541</v>
+        <v>2364287.48011</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1609544.05772</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1618978.41322</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2561230.201</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1729.98247</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>5378.78086</v>
+        <v>5378.780860000001</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>14247.88364</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>7917.21574</v>
+        <v>7917.215740000001</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>574.06212</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>929.2715599999999</v>
+        <v>930.40298</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>11557.38191</v>
+        <v>11669.38531</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>19996.98244</v>
@@ -1796,16 +1807,21 @@
         <v>8336.436659999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>80646.13107999999</v>
+        <v>86289.95506000001</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>22495.7774</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>31970.969</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>3707.71821</v>
@@ -1835,16 +1851,21 @@
         <v>2642.18986</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>691.75407</v>
+        <v>944.25407</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>1099.60175</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1367.253</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>22824.67176</v>
@@ -1859,31 +1880,36 @@
         <v>33601.27943</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>35554.97074</v>
+        <v>36266.46702</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>38332.77101999999</v>
+        <v>42107.37648</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>53920.77765</v>
+        <v>59306.45260000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>76896.20604</v>
+        <v>77036.39443</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>124206.38874</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>193254.47975</v>
+        <v>193635.43217</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>209770.91435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>212289.36776</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>232216.733</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3867.31397</v>
@@ -1892,40 +1918,45 @@
         <v>3488.51075</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>7507.592820000002</v>
+        <v>7507.59282</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>15154.36303</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>6552.930240000001</v>
+        <v>6553.07072</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>7639.07799</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5088.731519999999</v>
+        <v>5102.291109999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5235.36696</v>
+        <v>5238.49104</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>5938.594250000001</v>
+        <v>5938.59425</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>2779.65566</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5442.451800000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5601.150820000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>12331.223</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>6692.951680000001</v>
+        <v>6692.95168</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>8843.19904</v>
@@ -1940,34 +1971,39 @@
         <v>11067.85479</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>16192.7791</v>
+        <v>22386.71957</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>23399.74351</v>
+        <v>23443.14023</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>15909.61094</v>
+        <v>15968.07535</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>25681.52431</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>16077.32638</v>
+        <v>16195.02658</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>28378.12339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>28471.14129</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>37202.972</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1919.59881</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>6367.322980000001</v>
+        <v>6367.32298</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>4802.89047</v>
@@ -1976,31 +2012,36 @@
         <v>2704.49712</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>7809.05089</v>
+        <v>7929.75563</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>3601.3221</v>
+        <v>3608.37375</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4148.06106</v>
+        <v>4190.7574</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>7077.98916</v>
+        <v>7255.42871</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>5216.170359999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>7871.17639</v>
+        <v>7871.80029</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>13693.002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>13813.37794</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>44946.622</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>110234.11127</v>
@@ -2012,40 +2053,45 @@
         <v>190298.45825</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>173363.19302</v>
+        <v>173373.29431</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>175551.73068</v>
+        <v>180273.12167</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>194091.97194</v>
+        <v>260690.14222</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>438242.3079599999</v>
+        <v>466836.19699</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>379065.50586</v>
+        <v>380990.33431</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>571849.3876499999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1644738.69362</v>
+        <v>1658739.9422</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>877822.41847</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>879031.1176699999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1692378.162</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>6513.80315</v>
+        <v>6513.803150000001</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>7743.36887</v>
+        <v>7743.368870000001</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>11087.85374</v>
@@ -2069,16 +2115,21 @@
         <v>18246.74696</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>44986.5589</v>
+        <v>44986.55889999999</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>61704.64347</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>61704.64346999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>49351.996</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>623.1801700000001</v>
@@ -2102,25 +2153,30 @@
         <v>420.31638</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>657.13237</v>
+        <v>688.21658</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>626.8256600000001</v>
+        <v>626.82566</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>489.17435</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>172.8682</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>247.18961</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>563.419</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>93525.3021</v>
+        <v>93525.30210000002</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>107159.21529</v>
@@ -2129,34 +2185,39 @@
         <v>136376.58987</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>162303.17792</v>
+        <v>162338.97596</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>163684.57608</v>
+        <v>163824.06171</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>156174.0429</v>
+        <v>174243.0197</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>178084.48118</v>
+        <v>190667.14912</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>280038.70183</v>
+        <v>280846.63486</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>306656.79611</v>
+        <v>306656.7961099999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>349749.32521</v>
+        <v>352355.68083</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>388964.25689</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>394225.04551</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>458900.852</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>242702.13774</v>
@@ -2165,37 +2226,42 @@
         <v>219776.78353</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>470917.87912</v>
+        <v>470917.8791200001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>420391.8901199999</v>
+        <v>420411.02003</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>577796.7812999999</v>
+        <v>594373.9466</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>395788.1878</v>
+        <v>477916.41108</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>819524.52778</v>
+        <v>891139.71393</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>838568.10823</v>
+        <v>848451.13998</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>974282.2374300001</v>
+        <v>974282.23743</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2367790.41041</v>
+        <v>2381711.23882</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1324197.67888</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1326043.55725</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2356837.343</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>22546.47684</v>
@@ -2207,34 +2273,39 @@
         <v>26504.18494</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>35586.37839</v>
+        <v>35589.906</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>32645.80977</v>
+        <v>32670.95162</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>32433.84473</v>
+        <v>32488.50658</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>32985.6356</v>
+        <v>33272.63517</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>42801.84152</v>
+        <v>42804.49213</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>52352.02196</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>61099.56208</v>
+        <v>61104.35972</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>61669.30505</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>61750.45942000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>65116.947</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>86368.81981</v>
@@ -2249,31 +2320,36 @@
         <v>83054.54809</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>64559.54191000001</v>
+        <v>74062.94373</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>60460.36373</v>
+        <v>67025.73046000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>82899.82368</v>
+        <v>83483.92892000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>94359.28731999999</v>
+        <v>101646.49324</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>105725.22179</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>95425.19521000001</v>
+        <v>95538.32940999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>118238.09158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>119812.13046</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>109618.946</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>380.39897</v>
@@ -2285,19 +2361,19 @@
         <v>1128.6253</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>907.20754</v>
+        <v>907.2075399999999</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1518.4679</v>
+        <v>2252.318479999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1399.87451</v>
+        <v>13429.10715</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>3367.02808</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>850.82728</v>
+        <v>856.8266199999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>1261.4873</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1408.75173</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>12148.094</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>101744.11091</v>
@@ -2324,34 +2405,39 @@
         <v>354740.68137</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>126885.27179</v>
+        <v>126885.69521</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>395051.90449</v>
+        <v>401067.55288</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>234874.72861</v>
+        <v>294076.5232999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>622801.96101</v>
+        <v>685291.31385</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>627146.04943</v>
+        <v>629436.1243199999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>740748.75609</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2056174.80822</v>
+        <v>2069813.26106</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>947476.9195399999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>946980.48485</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1978419.454</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2261.04413</v>
@@ -2363,19 +2449,19 @@
         <v>2692.11487</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>3190.955629999999</v>
+        <v>3190.95563</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>4385.47359</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>7168.029239999999</v>
+        <v>7168.02924</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>3888.37405</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>7367.089940000001</v>
+        <v>7367.08994</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>6426.45908</v>
@@ -2384,13 +2470,18 @@
         <v>21797.7112</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>45099.15144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>45111.27715</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>46746.431</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>3102.5522</v>
@@ -2402,10 +2493,10 @@
         <v>396.35432</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>281.40589</v>
+        <v>281.40597</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>325.7288600000001</v>
+        <v>325.72886</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>248.83543</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>668.4916999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>163.319</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>26298.73488</v>
@@ -2441,34 +2537,39 @@
         <v>38881.54898000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>170486.12279</v>
+        <v>170501.30159</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>79309.85477999999</v>
+        <v>79608.97744000002</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>59202.51155</v>
+        <v>63479.67891999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>69391.62621</v>
+        <v>77646.35470999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>65722.36893000001</v>
+        <v>66019.46992</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>67631.41974</v>
+        <v>67631.41974000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>130481.88852</v>
+        <v>130646.33225</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>149636.96784</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>150311.96194</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>144624.152</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>347735.67829</v>
@@ -2480,34 +2581,39 @@
         <v>441450.64773</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>584548.90666</v>
+        <v>585140.7596699999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>655357.0008399999</v>
+        <v>659668.3470900001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>719527.0127899999</v>
+        <v>756114.3320200001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>922162.23039</v>
+        <v>943816.84423</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1148589.44603</v>
+        <v>1151544.36813</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1419120.8583</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1929400.70993</v>
+        <v>1934573.53526</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2079018.78756</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2105219.0714</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1712383.882</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>332597.00631</v>
@@ -2519,34 +2625,39 @@
         <v>399938.06499</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>555246.81088</v>
+        <v>555756.0030599999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>599569.16935</v>
+        <v>603880.5156</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>691746.5639900001</v>
+        <v>724527.0753199999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>883638.4919200001</v>
+        <v>905240.31524</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1103380.8829</v>
+        <v>1106335.80499</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1354241.75843</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1823193.05318</v>
+        <v>1828361.4528</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1977065.11891</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2001638.55299</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1613986.499</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>15138.67198</v>
@@ -2555,115 +2666,130 @@
         <v>19970.99289</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>41512.58274000001</v>
+        <v>41512.58274</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>29302.09577999999</v>
+        <v>29384.75661</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>55787.83149</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>27780.4488</v>
+        <v>31587.2567</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>38523.73847</v>
+        <v>38576.52898999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>45208.56313</v>
+        <v>45208.56314</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>64879.09987000001</v>
+        <v>64879.09987</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>106207.65675</v>
+        <v>106212.08246</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>101953.66865</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>103580.51841</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>98397.383</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>386829.38672</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>693013.64961</v>
+        <v>693013.6496099998</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>664985.57366</v>
+        <v>665337.1012899999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>569987.6711599999</v>
+        <v>571263.30824</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>509191.17966</v>
+        <v>494165.7699899999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>860605.3147699999</v>
+        <v>850574.05356</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>798972.85554</v>
+        <v>823373.03772</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>650539.01295</v>
+        <v>665564.56349</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1464672.58631</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>543679.27322</v>
+        <v>532125.87896</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>610302.2272400002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>613867.45578</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1828885.807</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>83889.69666999999</v>
+        <v>83889.69667</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>122606.34227</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>183977.4515</v>
+        <v>183978.66869</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>171137.71712</v>
+        <v>171210.33828</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>165910.14551</v>
+        <v>166965.00301</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>184220.022</v>
+        <v>200533.79047</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>255029.27049</v>
+        <v>256962.47616</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>294292.49107</v>
+        <v>295199.42438</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>503868.03506</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>467768.43567</v>
+        <v>469769.75889</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>520574.99039</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>545137.8399400001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>470833.672</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3403.78309</v>
@@ -2672,37 +2798,42 @@
         <v>1326.16679</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2621.31467</v>
+        <v>2622.44816</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2469.50042</v>
+        <v>2490.68686</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>27569.16</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>4727.8419</v>
+        <v>4753.59661</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5091.93628</v>
+        <v>5114.782609999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3409.11381</v>
+        <v>3473.105520000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>3672.35286</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3368.6143</v>
+        <v>3374.32879</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>7978.476600000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>7999.17182</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3506.15</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>80485.91357999999</v>
@@ -2711,76 +2842,86 @@
         <v>121280.17548</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>181356.13683</v>
+        <v>181356.22053</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>168668.2167</v>
+        <v>168719.65142</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>138340.98551</v>
+        <v>139395.84301</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>179492.1801</v>
+        <v>195780.19386</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>249937.33421</v>
+        <v>251847.69355</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>290883.37726</v>
+        <v>291726.31886</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>500195.6822</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>464399.8213700001</v>
+        <v>466395.4301</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>512596.5137899999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>537138.66812</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>467327.522</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>80849.73334999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>95035.70405</v>
+        <v>95035.70405000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>573618.7567499999</v>
+        <v>573642.63462</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>120249.82264</v>
+        <v>120487.76667</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>151852.61044</v>
+        <v>152416.41379</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>266818.65382</v>
+        <v>302368.19672</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>162026.5489</v>
+        <v>168077.03103</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>507531.6044600001</v>
+        <v>507429.0638199999</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>233945.1016</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>464293.6663100001</v>
+        <v>469318.17715</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>293915.80331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>306601.3631799999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>323316.124</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2380.49404</v>
@@ -2798,28 +2939,33 @@
         <v>1330.08793</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>467.6563399999999</v>
+        <v>467.65634</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1532.24712</v>
+        <v>1537.78311</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1316.68912</v>
+        <v>1319.4385</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>1186.40485</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3184.27925</v>
+        <v>3193.63815</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>6118.503809999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>6115.22276</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>12860.706</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>10337.15238</v>
@@ -2828,76 +2974,86 @@
         <v>11569.76907</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>16302.73402</v>
+        <v>16302.80862</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>11568.30977</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>8675.84036</v>
+        <v>8676.707910000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>13883.40292</v>
+        <v>14037.79797</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>7227.60031</v>
+        <v>7312.45168</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>14835.94586</v>
+        <v>14887.75515</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>11105.63564</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>11556.96757</v>
+        <v>11707.91964</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>15928.62462</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>16029.03887</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>13487.649</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>68132.08693</v>
+        <v>68132.08692999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>81042.18981</v>
+        <v>81042.18980999998</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>555805.0469500001</v>
+        <v>555828.85022</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>107099.71078</v>
+        <v>107337.65481</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>141846.68215</v>
+        <v>142409.61795</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>252467.59456</v>
+        <v>287862.7424099999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>153266.70147</v>
+        <v>159226.79624</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>491378.96948</v>
+        <v>491221.87017</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>221653.06111</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>449552.41949</v>
+        <v>454416.61936</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>271868.67488</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>284457.10155</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>296967.769</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>389869.35004</v>
@@ -2906,37 +3062,42 @@
         <v>720584.2878299999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>275344.26841</v>
+        <v>275673.13536</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>620875.5656399999</v>
+        <v>621985.87985</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>523248.71473</v>
+        <v>508714.35921</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>778006.68295</v>
+        <v>748739.6473099999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>891975.57713</v>
+        <v>912258.48285</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>437299.89956</v>
+        <v>453334.92405</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1734595.51977</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>547154.04258</v>
+        <v>532577.4606999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>836961.4143200001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>852403.93254</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1976403.355</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>126657.80768</v>
@@ -2945,37 +3106,42 @@
         <v>160630.57409</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>191788.78235</v>
+        <v>191861.25355</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>187517.77515</v>
+        <v>187741.56799</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>207778.52494</v>
+        <v>207885.34717</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>235939.7683</v>
+        <v>244916.34217</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>262729.28183</v>
+        <v>268765.16911</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>278142.3997</v>
+        <v>281117.25812</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>399195.64838</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>383667.74532</v>
+        <v>384213.38698</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>372617.78983</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>376242.26305</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>647321.7830000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>263211.54236</v>
@@ -2984,34 +3150,37 @@
         <v>559953.71374</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>83555.48606</v>
+        <v>83811.88181000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>433357.79049</v>
+        <v>434244.31186</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>315470.18979</v>
+        <v>300829.0120399999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>542066.91465</v>
+        <v>503823.3051400001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>629246.2953000001</v>
+        <v>643493.31374</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>159157.49986</v>
+        <v>172217.66593</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1335399.87139</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>163486.29726</v>
+        <v>148364.07372</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>464343.62449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>476161.66949</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1329081.572</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>25342</v>
@@ -3038,34 +3210,37 @@
         <v>25294</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>25196</v>
+        <v>25199</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>24716</v>
+        <v>24738</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>24035</v>
+        <v>24081</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>23352</v>
+        <v>23446</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>22911</v>
+        <v>23117</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>22622</v>
+        <v>22756</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>23098</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>21150</v>
+        <v>22879</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>20925</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>23099</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>23485</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>